--- a/regression.xlsx
+++ b/regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A152CCB-3DA6-404C-81DF-E4DD052F4235}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8779820A-97B1-45B1-A7FA-B5917278A1B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{674DB4BE-759F-455B-88C9-50B0C5B3E68F}"/>
+    <workbookView xWindow="1470" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{707CED75-0513-4450-BC83-6D642B450711}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,28 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>e1</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>e3</t>
-  </si>
-  <si>
-    <t>e12</t>
-  </si>
-  <si>
-    <t>e13</t>
-  </si>
-  <si>
-    <t>e23</t>
-  </si>
-  <si>
-    <t>e123</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>p</t>
   </si>
@@ -424,218 +403,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7086E590-9727-4D6B-9DA0-54A7C2AC0B19}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAA083F-7217-4F5A-89BE-5D2E00E316C2}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H8"/>
+      <selection activeCell="A2" sqref="A2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.4811455880909969</v>
       </c>
       <c r="B2">
-        <v>-0.49763861230380546</v>
+        <v>-207.66825044767745</v>
       </c>
       <c r="C2">
-        <v>-432.68665270148972</v>
+        <v>-208.16241078414097</v>
       </c>
       <c r="D2">
-        <v>-432.89027621927198</v>
+        <v>-17.358102788171418</v>
       </c>
       <c r="E2">
-        <v>-36.2072374756711</v>
+        <v>-13.855185276157442</v>
       </c>
       <c r="F2">
-        <v>-35.675261200213242</v>
+        <v>7.8882454678636665E-2</v>
       </c>
       <c r="G2">
-        <v>1.5763055669615486E-2</v>
-      </c>
-      <c r="H2">
-        <v>0.29315587044534408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+        <v>1.541223684210526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-0.25015049855573518</v>
       </c>
       <c r="B3">
-        <v>5.5414837299053166E-4</v>
+        <v>32.904420848673709</v>
       </c>
       <c r="C3">
-        <v>93.733160111791577</v>
+        <v>32.619909742157759</v>
       </c>
       <c r="D3">
-        <v>93.739025166643273</v>
+        <v>2.7327636901436723</v>
       </c>
       <c r="E3">
-        <v>7.9313035322431373</v>
+        <v>2.0262665560363047</v>
       </c>
       <c r="F3">
-        <v>7.9507000758303628</v>
+        <v>-4.9307956606899133E-3</v>
       </c>
       <c r="G3">
-        <v>6.0127889199360074E-5</v>
-      </c>
-      <c r="H3">
-        <v>4.1376518218622094E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+        <v>-9.0203947368421022E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-2.4877140094262394E-4</v>
       </c>
       <c r="B4">
-        <v>8.2807402224308088E-2</v>
+        <v>22.949854521476237</v>
       </c>
       <c r="C4">
-        <v>34.54828456271288</v>
+        <v>22.952838211633093</v>
       </c>
       <c r="D4">
-        <v>54.619589133340696</v>
+        <v>2.8015870987981497</v>
       </c>
       <c r="E4">
-        <v>0.47450153692768732</v>
+        <v>2.7889072070155398</v>
       </c>
       <c r="F4">
-        <v>1.9889362981508345</v>
+        <v>-9.2891567207530756E-5</v>
       </c>
       <c r="G4">
-        <v>-5.8170076910660047E-3</v>
-      </c>
-      <c r="H4">
-        <v>-0.11252429149797569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
+        <v>1.2704453441295589E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-3.9618529423887132E-3</v>
       </c>
       <c r="B5">
-        <v>1.1152886615296564E-3</v>
+        <v>2.6068354346482066</v>
       </c>
       <c r="C5">
-        <v>-460.01377522623068</v>
+        <v>3.6109985835118037</v>
       </c>
       <c r="D5">
-        <v>-407.9021246351291</v>
+        <v>0.20738870521943226</v>
       </c>
       <c r="E5">
-        <v>-40.810350350451337</v>
+        <v>0.2266117351480223</v>
       </c>
       <c r="F5">
-        <v>-35.882999508193379</v>
+        <v>-8.7239398683315182E-4</v>
       </c>
       <c r="G5">
-        <v>4.5209870934834223E-2</v>
-      </c>
-      <c r="H5">
-        <v>0.87822064777327946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+        <v>-1.6866497975708484E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.2720153072254974E-4</v>
       </c>
       <c r="B6">
-        <v>0.20035938322105898</v>
+        <v>-3.822402250714513</v>
       </c>
       <c r="C6">
-        <v>-301.51767079083299</v>
+        <v>-3.809397453351429</v>
       </c>
       <c r="D6">
-        <v>-249.36348809896595</v>
+        <v>-0.46674225795996238</v>
       </c>
       <c r="E6">
-        <v>-21.175877678615691</v>
+        <v>-0.46314437729552099</v>
       </c>
       <c r="F6">
-        <v>-14.986157981267635</v>
+        <v>2.5472199930312577E-5</v>
       </c>
       <c r="G6">
-        <v>5.8674956358357781E-2</v>
-      </c>
-      <c r="H6">
-        <v>1.1698755060728743</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
+        <v>-2.117408906882598E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.0885370013852501E-3</v>
       </c>
       <c r="B7">
-        <v>0.43216953731809093</v>
+        <v>-0.39830014460324181</v>
       </c>
       <c r="C7">
-        <v>151.39567680464469</v>
+        <v>-0.39278125238170813</v>
       </c>
       <c r="D7">
-        <v>203.6550286596333</v>
+        <v>-3.1177603579305036E-2</v>
       </c>
       <c r="E7">
-        <v>11.650708290668646</v>
+        <v>-1.7076678992368109E-2</v>
       </c>
       <c r="F7">
-        <v>16.582190040186525</v>
+        <v>1.4569678011098203E-4</v>
       </c>
       <c r="G7">
-        <v>3.7281842219421858E-2</v>
-      </c>
-      <c r="H7">
-        <v>0.75616599190283385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
+        <v>2.8110829959514137E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3.9267695795777715E-6</v>
       </c>
       <c r="B8">
-        <v>-0.74802427433195895</v>
+        <v>8.6199225755986361E-2</v>
       </c>
       <c r="C8">
-        <v>-426.28219598287063</v>
+        <v>8.6419348161382595E-2</v>
       </c>
       <c r="D8">
-        <v>-479.11509504607443</v>
+        <v>-7.0371675080888796E-3</v>
       </c>
       <c r="E8">
-        <v>-33.095655743466246</v>
+        <v>-6.7760036797483193E-3</v>
       </c>
       <c r="F8">
-        <v>-37.249796144060859</v>
+        <v>1.3023985449648127E-6</v>
       </c>
       <c r="G8">
-        <v>-2.1304877048531755E-2</v>
-      </c>
-      <c r="H8">
-        <v>-0.44881477732793518</v>
+        <v>-4.8582995951479413E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-3.5009419142632837E-6</v>
+      </c>
+      <c r="B9">
+        <v>-1.4412012719992547E-2</v>
+      </c>
+      <c r="C9">
+        <v>-1.4693778213525022E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.1697597364639422E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.105418877226998E-3</v>
+      </c>
+      <c r="F9">
+        <v>-3.3803481788196794E-7</v>
+      </c>
+      <c r="G9">
+        <v>8.0971659919132351E-8</v>
       </c>
     </row>
   </sheetData>

--- a/regression.xlsx
+++ b/regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8779820A-97B1-45B1-A7FA-B5917278A1B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A405D141-71E8-4E43-97CB-32A5DEFCCB22}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{707CED75-0513-4450-BC83-6D642B450711}"/>
   </bookViews>
@@ -437,186 +437,186 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.4811455880909969</v>
+        <v>1.4618836743572776</v>
       </c>
       <c r="B2">
-        <v>-207.66825044767745</v>
+        <v>-212.93231220423337</v>
       </c>
       <c r="C2">
-        <v>-208.16241078414097</v>
+        <v>-214.88162964715997</v>
       </c>
       <c r="D2">
-        <v>-17.358102788171418</v>
+        <v>-17.288273718396137</v>
       </c>
       <c r="E2">
-        <v>-13.855185276157442</v>
+        <v>-13.882822190472419</v>
       </c>
       <c r="F2">
-        <v>7.8882454678636665E-2</v>
+        <v>7.950282610699369E-2</v>
       </c>
       <c r="G2">
-        <v>1.541223684210526</v>
+        <v>1.5600414201183295</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-0.25015049855573518</v>
+        <v>-0.24383995651172938</v>
       </c>
       <c r="B3">
-        <v>32.904420848673709</v>
+        <v>33.692160752860502</v>
       </c>
       <c r="C3">
-        <v>32.619909742157759</v>
+        <v>33.795504650290674</v>
       </c>
       <c r="D3">
-        <v>2.7327636901436723</v>
+        <v>2.7114605454817546</v>
       </c>
       <c r="E3">
-        <v>2.0262665560363047</v>
+        <v>2.0303215827462866</v>
       </c>
       <c r="F3">
-        <v>-4.9307956606899133E-3</v>
+        <v>-4.7667714770989614E-3</v>
       </c>
       <c r="G3">
-        <v>-9.0203947368421022E-2</v>
+        <v>-9.3340236686388273E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-2.4877140094262394E-4</v>
+        <v>5.9711139364861392E-4</v>
       </c>
       <c r="B4">
-        <v>22.949854521476237</v>
+        <v>22.759292598455339</v>
       </c>
       <c r="C4">
-        <v>22.952838211633093</v>
+        <v>22.84408668347703</v>
       </c>
       <c r="D4">
-        <v>2.8015870987981497</v>
+        <v>2.7558695481293798</v>
       </c>
       <c r="E4">
-        <v>2.7889072070155398</v>
+        <v>2.7488713323011185</v>
       </c>
       <c r="F4">
-        <v>-9.2891567207530756E-5</v>
+        <v>-1.0217023824321713E-4</v>
       </c>
       <c r="G4">
-        <v>1.2704453441295589E-3</v>
+        <v>4.2625739645023861E-4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-3.9618529423887132E-3</v>
+        <v>-3.7387724426624497E-3</v>
       </c>
       <c r="B5">
-        <v>2.6068354346482066</v>
+        <v>2.4694649505997033</v>
       </c>
       <c r="C5">
-        <v>3.6109985835118037</v>
+        <v>3.4778713394214735</v>
       </c>
       <c r="D5">
-        <v>0.20738870521943226</v>
+        <v>0.20038219812795371</v>
       </c>
       <c r="E5">
-        <v>0.2266117351480223</v>
+        <v>0.22082235456114238</v>
       </c>
       <c r="F5">
-        <v>-8.7239398683315182E-4</v>
+        <v>-8.7394153003800181E-4</v>
       </c>
       <c r="G5">
-        <v>-1.6866497975708484E-2</v>
+        <v>-1.7021449704141774E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.2720153072254974E-4</v>
+        <v>-9.0278998200823965E-5</v>
       </c>
       <c r="B6">
-        <v>-3.822402250714513</v>
+        <v>-3.7882695769458841</v>
       </c>
       <c r="C6">
-        <v>-3.809397453351429</v>
+        <v>-3.7961557265620152</v>
       </c>
       <c r="D6">
-        <v>-0.46674225795996238</v>
+        <v>-0.45886455473932147</v>
       </c>
       <c r="E6">
-        <v>-0.46314437729552099</v>
+        <v>-0.4570368054086007</v>
       </c>
       <c r="F6">
-        <v>2.5472199930312577E-5</v>
+        <v>1.1932263087399394E-5</v>
       </c>
       <c r="G6">
-        <v>-2.117408906882598E-4</v>
+        <v>-7.1042899408373111E-5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.0885370013852501E-3</v>
+        <v>2.0243537775510483E-3</v>
       </c>
       <c r="B7">
-        <v>-0.39830014460324181</v>
+        <v>-0.37371100156779702</v>
       </c>
       <c r="C7">
-        <v>-0.39278125238170813</v>
+        <v>-0.36987805354654668</v>
       </c>
       <c r="D7">
-        <v>-3.1177603579305036E-2</v>
+        <v>-2.982068781611651E-2</v>
       </c>
       <c r="E7">
-        <v>-1.7076678992368109E-2</v>
+        <v>-1.5740042053989135E-2</v>
       </c>
       <c r="F7">
-        <v>1.4569678011098203E-4</v>
+        <v>1.4288134640670714E-4</v>
       </c>
       <c r="G7">
-        <v>2.8110829959514137E-3</v>
+        <v>2.8369082840236288E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3.9267695795777715E-6</v>
+        <v>-6.8921490654288986E-6</v>
       </c>
       <c r="B8">
-        <v>8.6199225755986361E-2</v>
+        <v>9.7528247963145839E-2</v>
       </c>
       <c r="C8">
-        <v>8.6419348161382595E-2</v>
+        <v>9.6953735918318532E-2</v>
       </c>
       <c r="D8">
-        <v>-7.0371675080888796E-3</v>
+        <v>-6.1151810515726714E-3</v>
       </c>
       <c r="E8">
-        <v>-6.7760036797483193E-3</v>
+        <v>-5.9480828250027696E-3</v>
       </c>
       <c r="F8">
-        <v>1.3023985449648127E-6</v>
+        <v>1.2455559965008409E-6</v>
       </c>
       <c r="G8">
-        <v>-4.8582995951479413E-7</v>
+        <v>9.6523668638956449E-6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-3.5009419142632837E-6</v>
+        <v>3.9031417625595701E-7</v>
       </c>
       <c r="B9">
-        <v>-1.4412012719992547E-2</v>
+        <v>-1.6344367794565572E-2</v>
       </c>
       <c r="C9">
-        <v>-1.4693778213525022E-2</v>
+        <v>-1.6411524503065138E-2</v>
       </c>
       <c r="D9">
-        <v>1.1697597364639422E-3</v>
+        <v>1.0110503527073745E-3</v>
       </c>
       <c r="E9">
-        <v>1.105418877226998E-3</v>
+        <v>9.6446033910380091E-4</v>
       </c>
       <c r="F9">
-        <v>-3.3803481788196794E-7</v>
+        <v>-1.3705834270341754E-7</v>
       </c>
       <c r="G9">
-        <v>8.0971659919132351E-8</v>
+        <v>-1.6087278106492741E-6</v>
       </c>
     </row>
   </sheetData>

--- a/regression.xlsx
+++ b/regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A405D141-71E8-4E43-97CB-32A5DEFCCB22}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ED8EE6-221F-4886-88A7-983F4ED131E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{707CED75-0513-4450-BC83-6D642B450711}"/>
+    <workbookView xWindow="2160" yWindow="2760" windowWidth="15375" windowHeight="7875" xr2:uid="{707CED75-0513-4450-BC83-6D642B450711}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -437,186 +437,186 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.4618836743572776</v>
+        <v>0.54322057842079086</v>
       </c>
       <c r="B2">
-        <v>-212.93231220423337</v>
+        <v>407.64816138133796</v>
       </c>
       <c r="C2">
-        <v>-214.88162964715997</v>
+        <v>402.06499460016352</v>
       </c>
       <c r="D2">
-        <v>-17.288273718396137</v>
+        <v>37.520678032852302</v>
       </c>
       <c r="E2">
-        <v>-13.882822190472419</v>
+        <v>37.596058192770606</v>
       </c>
       <c r="F2">
-        <v>7.950282610699369E-2</v>
+        <v>7.5788350870028151E-2</v>
       </c>
       <c r="G2">
-        <v>1.5600414201183295</v>
+        <v>1.5555597014925286</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-0.24383995651172938</v>
+        <v>-9.0517860656872923E-2</v>
       </c>
       <c r="B3">
-        <v>33.692160752860502</v>
+        <v>-73.564919177194241</v>
       </c>
       <c r="C3">
-        <v>33.795504650290674</v>
+        <v>-72.808936974492752</v>
       </c>
       <c r="D3">
-        <v>2.7114605454817546</v>
+        <v>-6.7830089165900773</v>
       </c>
       <c r="E3">
-        <v>2.0303215827462866</v>
+        <v>-6.8683408702553841</v>
       </c>
       <c r="F3">
-        <v>-4.7667714770989614E-3</v>
+        <v>-4.1937674954482919E-3</v>
       </c>
       <c r="G3">
-        <v>-9.3340236686388273E-2</v>
+        <v>-9.2543532338306991E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5.9711139364861392E-4</v>
+        <v>3.4919736270547716E-3</v>
       </c>
       <c r="B4">
-        <v>22.759292598455339</v>
+        <v>-56.817198360380644</v>
       </c>
       <c r="C4">
-        <v>22.84408668347703</v>
+        <v>-56.596056300915393</v>
       </c>
       <c r="D4">
-        <v>2.7558695481293798</v>
+        <v>-5.1926427412718201</v>
       </c>
       <c r="E4">
-        <v>2.7488713323011185</v>
+        <v>-5.1507794608379482</v>
       </c>
       <c r="F4">
-        <v>-1.0217023824321713E-4</v>
+        <v>3.125642497796913E-5</v>
       </c>
       <c r="G4">
-        <v>4.2625739645023861E-4</v>
+        <v>-3.6987562189050778E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-3.7387724426624497E-3</v>
+        <v>8.2907584835388275E-3</v>
       </c>
       <c r="B5">
-        <v>2.4694649505997033</v>
+        <v>-6.7887056752702879</v>
       </c>
       <c r="C5">
-        <v>3.4778713394214735</v>
+        <v>-5.7001601532709945</v>
       </c>
       <c r="D5">
-        <v>0.20038219812795371</v>
+        <v>-0.62314769423214877</v>
       </c>
       <c r="E5">
-        <v>0.22082235456114238</v>
+        <v>-0.53104092505707878</v>
       </c>
       <c r="F5">
-        <v>-8.7394153003800181E-4</v>
+        <v>-5.4010083858351595E-4</v>
       </c>
       <c r="G5">
-        <v>-1.7021449704141774E-2</v>
+        <v>-1.1349999999999841E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-9.0278998200823965E-5</v>
+        <v>-5.3042070813970267E-4</v>
       </c>
       <c r="B6">
-        <v>-3.7882695769458841</v>
+        <v>9.4685636576620844</v>
       </c>
       <c r="C6">
-        <v>-3.7961557265620152</v>
+        <v>9.4413898809365673</v>
       </c>
       <c r="D6">
-        <v>-0.45886455473932147</v>
+        <v>0.86492008871970882</v>
       </c>
       <c r="E6">
-        <v>-0.4570368054086007</v>
+        <v>0.85665147835929045</v>
       </c>
       <c r="F6">
-        <v>1.1932263087399394E-5</v>
+        <v>-8.9586913493202091E-6</v>
       </c>
       <c r="G6">
-        <v>-7.1042899408373111E-5</v>
+        <v>6.1480099502480982E-4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.0243537775510483E-3</v>
+        <v>2.690881356468257E-4</v>
       </c>
       <c r="B7">
-        <v>-0.37371100156779702</v>
+        <v>1.2507572586294997</v>
       </c>
       <c r="C7">
-        <v>-0.36987805354654668</v>
+        <v>1.2384584215386667</v>
       </c>
       <c r="D7">
-        <v>-2.982068781611651E-2</v>
+        <v>0.11507602656501037</v>
       </c>
       <c r="E7">
-        <v>-1.5740042053989135E-2</v>
+        <v>0.11631514684120829</v>
       </c>
       <c r="F7">
-        <v>1.4288134640670714E-4</v>
+        <v>8.7453369033517562E-5</v>
       </c>
       <c r="G7">
-        <v>2.8369082840236288E-3</v>
+        <v>1.8906716417910184E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-6.8921490654288986E-6</v>
+        <v>-4.4840907795885146E-5</v>
       </c>
       <c r="B8">
-        <v>9.7528247963145839E-2</v>
+        <v>1.1563289160373844</v>
       </c>
       <c r="C8">
-        <v>9.6953735918318532E-2</v>
+        <v>1.1526929301228577</v>
       </c>
       <c r="D8">
-        <v>-6.1151810515726714E-3</v>
+        <v>0.10593993906002723</v>
       </c>
       <c r="E8">
-        <v>-5.9480828250027696E-3</v>
+        <v>0.10525764010046768</v>
       </c>
       <c r="F8">
-        <v>1.2455559965008409E-6</v>
+        <v>1.9640552137434488E-9</v>
       </c>
       <c r="G8">
-        <v>9.6523668638956449E-6</v>
+        <v>8.1542288557206747E-5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3.9031417625595701E-7</v>
+        <v>6.8115343975742173E-6</v>
       </c>
       <c r="B9">
-        <v>-1.6344367794565572E-2</v>
+        <v>-0.19264488932323839</v>
       </c>
       <c r="C9">
-        <v>-1.6411524503065138E-2</v>
+        <v>-0.1921867962761275</v>
       </c>
       <c r="D9">
-        <v>1.0110503527073745E-3</v>
+        <v>-1.7641207688618682E-2</v>
       </c>
       <c r="E9">
-        <v>9.6446033910380091E-4</v>
+        <v>-1.7501910962753234E-2</v>
       </c>
       <c r="F9">
-        <v>-1.3705834270341754E-7</v>
+        <v>6.5130292564146563E-8</v>
       </c>
       <c r="G9">
-        <v>-1.6087278106492741E-6</v>
+        <v>-1.3557213930347062E-5</v>
       </c>
     </row>
   </sheetData>

--- a/regression.xlsx
+++ b/regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ED8EE6-221F-4886-88A7-983F4ED131E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5481A05-98AD-4BA0-B5FB-F158AA4935A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2760" windowWidth="15375" windowHeight="7875" xr2:uid="{707CED75-0513-4450-BC83-6D642B450711}"/>
+    <workbookView xWindow="1560" yWindow="2160" windowWidth="15375" windowHeight="7875" xr2:uid="{707CED75-0513-4450-BC83-6D642B450711}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -437,186 +437,186 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.54322057842079086</v>
+        <v>0.56935788752004735</v>
       </c>
       <c r="B2">
-        <v>407.64816138133796</v>
+        <v>408.50852799754455</v>
       </c>
       <c r="C2">
-        <v>402.06499460016352</v>
+        <v>405.46054730599417</v>
       </c>
       <c r="D2">
-        <v>37.520678032852302</v>
+        <v>39.371578093868209</v>
       </c>
       <c r="E2">
-        <v>37.596058192770606</v>
+        <v>41.976845256403664</v>
       </c>
       <c r="F2">
-        <v>7.5788350870028151E-2</v>
+        <v>7.5272621665676609E-2</v>
       </c>
       <c r="G2">
-        <v>1.5555597014925286</v>
+        <v>1.5666740654205649</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-9.0517860656872923E-2</v>
+        <v>-9.123457630353779E-2</v>
       </c>
       <c r="B3">
-        <v>-73.564919177194241</v>
+        <v>-74.015916273070218</v>
       </c>
       <c r="C3">
-        <v>-72.808936974492752</v>
+        <v>-73.332591833625429</v>
       </c>
       <c r="D3">
-        <v>-6.7830089165900773</v>
+        <v>-7.1311177905961785</v>
       </c>
       <c r="E3">
-        <v>-6.8683408702553841</v>
+        <v>-6.972112145138496</v>
       </c>
       <c r="F3">
-        <v>-4.1937674954482919E-3</v>
+        <v>-4.093002613164547E-3</v>
       </c>
       <c r="G3">
-        <v>-9.2543532338306991E-2</v>
+        <v>-9.4334696261682838E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3.4919736270547716E-3</v>
+        <v>2.5333545123097435E-3</v>
       </c>
       <c r="B4">
-        <v>-56.817198360380644</v>
+        <v>-65.383239969959732</v>
       </c>
       <c r="C4">
-        <v>-56.596056300915393</v>
+        <v>-65.262333025560707</v>
       </c>
       <c r="D4">
-        <v>-5.1926427412718201</v>
+        <v>-6.0507959915840548</v>
       </c>
       <c r="E4">
-        <v>-5.1507794608379482</v>
+        <v>-6.0473364732950685</v>
       </c>
       <c r="F4">
-        <v>3.125642497796913E-5</v>
+        <v>4.7906807893538687E-5</v>
       </c>
       <c r="G4">
-        <v>-3.6987562189050778E-3</v>
+        <v>-3.6477803738319018E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8.2907584835388275E-3</v>
+        <v>7.9955818798117129E-3</v>
       </c>
       <c r="B5">
-        <v>-6.7887056752702879</v>
+        <v>-6.796053909371139</v>
       </c>
       <c r="C5">
-        <v>-5.7001601532709945</v>
+        <v>-5.7488134257516075</v>
       </c>
       <c r="D5">
-        <v>-0.62314769423214877</v>
+        <v>-0.65613840637936405</v>
       </c>
       <c r="E5">
-        <v>-0.53104092505707878</v>
+        <v>-0.66554446825297575</v>
       </c>
       <c r="F5">
-        <v>-5.4010083858351595E-4</v>
+        <v>-5.2868423900048549E-4</v>
       </c>
       <c r="G5">
-        <v>-1.1349999999999841E-2</v>
+        <v>-1.1562266355140233E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-5.3042070813970267E-4</v>
+        <v>-5.5841013484108357E-4</v>
       </c>
       <c r="B6">
-        <v>9.4685636576620844</v>
+        <v>10.908081164592426</v>
       </c>
       <c r="C6">
-        <v>9.4413898809365673</v>
+        <v>10.875977066106463</v>
       </c>
       <c r="D6">
-        <v>0.86492008871970882</v>
+        <v>1.0094790505311244</v>
       </c>
       <c r="E6">
-        <v>0.85665147835929045</v>
+        <v>1.0081424868836577</v>
       </c>
       <c r="F6">
-        <v>-8.9586913493202091E-6</v>
+        <v>-9.4823443977530037E-6</v>
       </c>
       <c r="G6">
-        <v>6.1480099502480982E-4</v>
+        <v>6.0426401869160683E-4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.690881356468257E-4</v>
+        <v>2.6006545052603762E-4</v>
       </c>
       <c r="B7">
-        <v>1.2507572586294997</v>
+        <v>1.2609662065504341</v>
       </c>
       <c r="C7">
-        <v>1.2384584215386667</v>
+        <v>1.2499343792242843</v>
       </c>
       <c r="D7">
-        <v>0.11507602656501037</v>
+        <v>0.12162484899178549</v>
       </c>
       <c r="E7">
-        <v>0.11631514684120829</v>
+        <v>0.12653184391729594</v>
       </c>
       <c r="F7">
-        <v>8.7453369033517562E-5</v>
+        <v>8.5313124976523977E-5</v>
       </c>
       <c r="G7">
-        <v>1.8906716417910184E-3</v>
+        <v>1.9248247663551459E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-4.4840907795885146E-5</v>
+        <v>-3.2983761694480031E-5</v>
       </c>
       <c r="B8">
-        <v>1.1563289160373844</v>
+        <v>1.3284399748667821</v>
       </c>
       <c r="C8">
-        <v>1.1526929301228577</v>
+        <v>1.3266091581488295</v>
       </c>
       <c r="D8">
-        <v>0.10593993906002723</v>
+        <v>0.12305026782459154</v>
       </c>
       <c r="E8">
-        <v>0.10525764010046768</v>
+        <v>0.12300250197900749</v>
       </c>
       <c r="F8">
-        <v>1.9640552137434488E-9</v>
+        <v>-4.3168999539501191E-7</v>
       </c>
       <c r="G8">
-        <v>8.1542288557206747E-5</v>
+        <v>8.0245327102805022E-5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6.8115343975742173E-6</v>
+        <v>7.7876759945691426E-6</v>
       </c>
       <c r="B9">
-        <v>-0.19264488932323839</v>
+        <v>-0.22168216699995466</v>
       </c>
       <c r="C9">
-        <v>-0.1921867962761275</v>
+        <v>-0.22117803371293829</v>
       </c>
       <c r="D9">
-        <v>-1.7641207688618682E-2</v>
+        <v>-2.0534041469193305E-2</v>
       </c>
       <c r="E9">
-        <v>-1.7501910962753234E-2</v>
+        <v>-2.0516464959558386E-2</v>
       </c>
       <c r="F9">
-        <v>6.5130292564146563E-8</v>
+        <v>9.8422187271010252E-8</v>
       </c>
       <c r="G9">
-        <v>-1.3557213930347062E-5</v>
+        <v>-1.3300233644859966E-5</v>
       </c>
     </row>
   </sheetData>
